--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E946A0D-27FA-604E-983B-B0E8CC6A9E15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B0F23-F13C-4848-8BFF-A4F3BB7BA09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FDEAD41C-FB98-8449-9B0D-C2D9B5058C21}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -59,19 +59,7 @@
     <t>Ja 25%; Nein 75%</t>
   </si>
   <si>
-    <t>Softwareentwickler (N = 4)</t>
-  </si>
-  <si>
-    <t>Lead-Developer (N = 1)</t>
-  </si>
-  <si>
-    <t>Softwareentwickler und Berater (N = 1)</t>
-  </si>
-  <si>
     <t>Nein</t>
-  </si>
-  <si>
-    <t>Systemadministrator und DevOps (N = 1)</t>
   </si>
   <si>
     <t>Verarbeitete Daten</t>
@@ -182,13 +170,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -202,8 +209,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C8E81B1-61E4-604C-AA59-3C3DA3470C8A}" name="Tabelle1" displayName="Tabelle1" ref="E7:I36" totalsRowShown="0">
-  <autoFilter ref="E7:I36" xr:uid="{362CD77B-4D90-A94B-B432-C8063D357B3D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C8E81B1-61E4-604C-AA59-3C3DA3470C8A}" name="Tabelle1" displayName="Tabelle1" ref="B2:F31" totalsRowShown="0">
+  <autoFilter ref="B2:F31" xr:uid="{362CD77B-4D90-A94B-B432-C8063D357B3D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -222,16 +229,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38E18B2F-1779-C04F-8056-C557968F3A4E}" name="Tabelle2" displayName="Tabelle2" ref="D53:F57" totalsRowShown="0">
-  <autoFilter ref="D53:F57" xr:uid="{3A020BD2-E4BF-4547-A794-7316F2FB38F1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38E18B2F-1779-C04F-8056-C557968F3A4E}" name="Table1" displayName="Table1" ref="B36:D40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B36:D40" xr:uid="{3A020BD2-E4BF-4547-A794-7316F2FB38F1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0403F503-B036-1842-9BB9-274D4FC0065C}" name="Rolle"/>
-    <tableColumn id="2" xr3:uid="{5DD6BC8C-0707-AA42-90AA-1BDA24881BBC}" name="Administration von Servern"/>
-    <tableColumn id="5" xr3:uid="{2D495AA2-1B47-6842-82EB-21F06E621B8A}" name="Nutzung von Log-Dateien"/>
+    <tableColumn id="1" xr3:uid="{0403F503-B036-1842-9BB9-274D4FC0065C}" name="Rolle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5DD6BC8C-0707-AA42-90AA-1BDA24881BBC}" name="Administration von Servern" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2D495AA2-1B47-6842-82EB-21F06E621B8A}" name="Nutzung von Log-Dateien" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -534,187 +541,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340C6FA8-7641-E84A-85F2-1761299F2A93}">
-  <dimension ref="D6:I57"/>
+  <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
-    <col min="5" max="5" width="37.5" customWidth="1"/>
-    <col min="6" max="6" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="47" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="C39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48B0F23-F13C-4848-8BFF-A4F3BB7BA09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9395E5F-EEC1-074F-BC61-22A484FEEA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{FDEAD41C-FB98-8449-9B0D-C2D9B5058C21}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entwickler1" sheetId="1" r:id="rId1"/>
+    <sheet name="Berater und Entwickler" sheetId="4" r:id="rId2"/>
+    <sheet name="Lead-Developer" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,118 +35,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Lead-Developer</t>
-  </si>
-  <si>
-    <t>n = 7</t>
-  </si>
-  <si>
-    <t>Rolle</t>
-  </si>
-  <si>
-    <t>Softwareentwickler</t>
-  </si>
-  <si>
-    <t>Administration von Servern</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+  <si>
+    <t>Textstelle</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Welche Daten verarbeitest du?</t>
+  </si>
+  <si>
+    <t>Aktivität von anderen Entwicklern, die am Projekt arbeiten (wann und was wurde getan?</t>
+  </si>
+  <si>
+    <t>Was schaust du dir konkret an?</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Git Commits, Commitnachrichten</t>
+  </si>
+  <si>
+    <t>In welcher Auflösung brauchst du den Zeitstempel?</t>
+  </si>
+  <si>
+    <t>Am selben Tag schon genau, danach nicht mehr wichtig</t>
+  </si>
+  <si>
+    <t>Gibt es etwas Anderes, was du dir anschaust?</t>
+  </si>
+  <si>
+    <t>Umfang eines Commits (kleiner Fix, großes Feature), Jenkins-Builds</t>
+  </si>
+  <si>
+    <t>Spezifisch, wer was gebaut hat?</t>
+  </si>
+  <si>
+    <t>Nein, nur wer</t>
+  </si>
+  <si>
+    <t>Was schaust du dir beim Review-Tool an?</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Patches, ob Review erforderlich ist</t>
+  </si>
+  <si>
+    <t>Wie lange sollen diese Daten aufbewahrt werden?</t>
+  </si>
+  <si>
+    <t>Eine Woche nach dem Mergen (Zeitstempel, Kommentare aber relevant)</t>
+  </si>
+  <si>
+    <t>Wie lange werden diese Daten tatsächlich aufbewahrt?</t>
+  </si>
+  <si>
+    <t>Builds 360 Tage Limit, Issues keines</t>
+  </si>
+  <si>
+    <t>Was für Daten schaust du dir in Issues an und in welchem Detailgrad brauchst du diese?</t>
+  </si>
+  <si>
+    <t>Text/Titel, Ersteller, Erstellungszeit, Status des Issues</t>
+  </si>
+  <si>
+    <t>Schaust du dir an, von wem wann Kommentare editiert wurden?</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Welche Interessen verfolgst du beim Ansehen von Zeitstempel in DevOps-Tools?</t>
+  </si>
+  <si>
+    <t>Qualitätssicherung, Leistungsbeurteilung, Projektplanung</t>
+  </si>
+  <si>
+    <t>Auswertungen, die du nicht machst, aber dir vorstellen kannst mit diesen Daten?</t>
+  </si>
+  <si>
+    <t>Leistungsbeurteilung durch Zeitstempel</t>
+  </si>
+  <si>
+    <t>Wie?</t>
+  </si>
+  <si>
+    <t>Durch die Frequenz der Zeitstempel</t>
+  </si>
+  <si>
+    <t>Nutzeraktivität</t>
+  </si>
+  <si>
+    <t>Interesse an Daten</t>
+  </si>
+  <si>
+    <t>Schaust du dir Logs an?</t>
   </si>
   <si>
     <t>Ja</t>
   </si>
   <si>
-    <t>Ja 25%; Nein 75%</t>
-  </si>
-  <si>
-    <t>Nein</t>
-  </si>
-  <si>
-    <t>Verarbeitete Daten</t>
-  </si>
-  <si>
-    <t>sensible Kunden- und Nutzerdaten</t>
-  </si>
-  <si>
-    <t>Softwareentwickler und Berater</t>
-  </si>
-  <si>
-    <t>Systemadministrator und DevOps</t>
-  </si>
-  <si>
-    <t>Relevante Daten</t>
-  </si>
-  <si>
-    <t>Personenspezifisch?</t>
-  </si>
-  <si>
-    <t>Nutzeraktivitäten (Commits, Builds, Issues)</t>
-  </si>
-  <si>
-    <t>Tatsächliche Aufbewahrungsdauer der Daten</t>
-  </si>
-  <si>
-    <t>Gewünschte Aufbewahrungsdauer der Daten</t>
-  </si>
-  <si>
-    <t>Detailgrad der Daten</t>
-  </si>
-  <si>
-    <t>Interesse an Daten der Editoren?</t>
-  </si>
-  <si>
-    <t>Verfolgte Interessen</t>
-  </si>
-  <si>
-    <t>Personenspezifische Daten in Logs?</t>
-  </si>
-  <si>
-    <t>Aufbewahrungsdauer von Logs</t>
-  </si>
-  <si>
-    <t>Gängige Einsatztools</t>
-  </si>
-  <si>
-    <t>Gründe für Personenbezug</t>
-  </si>
-  <si>
-    <t>Detailgrad</t>
-  </si>
-  <si>
-    <t>Verarbeitungsinteressen der Daten</t>
-  </si>
-  <si>
-    <t>Ja (Server- und Applikationslogs)</t>
-  </si>
-  <si>
-    <t>Keine Angabe</t>
-  </si>
-  <si>
-    <t>Ja (Error- und Access-Logs)</t>
-  </si>
-  <si>
-    <t>Ja (Alle Logs)</t>
-  </si>
-  <si>
-    <t>Nutzung von Log-Dateien</t>
+    <t>Welche?</t>
+  </si>
+  <si>
+    <t>Server- und Applikationslog</t>
+  </si>
+  <si>
+    <t>Auch, wer wann was gemacht hat?</t>
+  </si>
+  <si>
+    <t>Gerne, aber nicht möglich</t>
+  </si>
+  <si>
+    <t>Wie lange aufbewahrt?</t>
+  </si>
+  <si>
+    <t>Weiß ich nicht</t>
+  </si>
+  <si>
+    <t>Welche Tools zur Administration?</t>
+  </si>
+  <si>
+    <t>Möglichkeit einzusehen, wer wann was gemacht hat?</t>
+  </si>
+  <si>
+    <t>Spring Boot Admin, Jenkins</t>
+  </si>
+  <si>
+    <t>Spring Boot: Nein, Jenkins: Ja, wer</t>
+  </si>
+  <si>
+    <t>Warum "wer" relevant?</t>
+  </si>
+  <si>
+    <t>Fehlerbehebung, Nachvollziehbarkeit</t>
+  </si>
+  <si>
+    <t>Andere Verarbeitungsinteressen?</t>
+  </si>
+  <si>
+    <t>Ressourcenmanagement</t>
+  </si>
+  <si>
+    <t>Detailreich</t>
+  </si>
+  <si>
+    <t>Interesse an Zeitstempeln</t>
+  </si>
+  <si>
+    <t>Temporär</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Commitumfang, Builds</t>
+  </si>
+  <si>
+    <t>Relevanz des Personenbezugs</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Patches</t>
+  </si>
+  <si>
+    <t>Interesse an Daten in Review-Tools</t>
+  </si>
+  <si>
+    <t>Gewünschte Aufbewahrungsdauer</t>
+  </si>
+  <si>
+    <t>Tatsächliche Aufbewahrungsdauer</t>
+  </si>
+  <si>
+    <t>Unbegrenzt</t>
+  </si>
+  <si>
+    <t>Detailgrad in Zeitstempeln</t>
+  </si>
+  <si>
+    <t>Detailgrad in Issues</t>
+  </si>
+  <si>
+    <t>Person, Issue-Beschreibung, Zeitstempel</t>
+  </si>
+  <si>
+    <t>Andere Dateninteressen</t>
+  </si>
+  <si>
+    <t>Personenbezug in Kommentaren</t>
+  </si>
+  <si>
+    <t>kein Personenbezug</t>
+  </si>
+  <si>
+    <t>Verfolgte Interessen bei Zeitstempel in DevOps-Tools</t>
+  </si>
+  <si>
+    <t>Allgemeine Auswertungen von persönlichen Daten</t>
+  </si>
+  <si>
+    <t>Leistungsbeurteilung</t>
+  </si>
+  <si>
+    <t>Auswertungsmethode</t>
+  </si>
+  <si>
+    <t>Zeitstempel-Frequenz</t>
+  </si>
+  <si>
+    <t>Interesse an Log-Dateien</t>
+  </si>
+  <si>
+    <t>Interesse</t>
+  </si>
+  <si>
+    <t>Art der Log-Dateien</t>
+  </si>
+  <si>
+    <t>Serverlog, Applikationslog</t>
+  </si>
+  <si>
+    <t>Persönliche Daten in Log-Dateien</t>
+  </si>
+  <si>
+    <t>Gewünscht</t>
+  </si>
+  <si>
+    <t>Aufbewahrungsdauer von Log-Dateien</t>
+  </si>
+  <si>
+    <t>keine Angabe</t>
+  </si>
+  <si>
+    <t>Einsatz von Tools zur Administration</t>
+  </si>
+  <si>
+    <t>Persönliche Daten in Tools</t>
+  </si>
+  <si>
+    <t>Gründe für Relevanz der persönlichen Daten</t>
+  </si>
+  <si>
+    <t>Build-Tools, Kommunikationstools</t>
+  </si>
+  <si>
+    <t>keine Daten in SpringBoot, Personendaten in Jenkins, persönliche Daten in Kommunikationstools</t>
+  </si>
+  <si>
+    <t>Mögliche Verarbeitungsinteressen von anderen Unternehmen</t>
+  </si>
+  <si>
+    <t>Welche Daten aus DevOps-Tools?</t>
+  </si>
+  <si>
+    <t>Code selbst, Ersteller des Codes (aber nicht wichtig, ginge auch anonymisiert), Zeitstempel und Personendaten relevant</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Ersteller,</t>
+  </si>
+  <si>
+    <t>sensible Kundendaten, Nutzernamen, Kundennummern etc,</t>
+  </si>
+  <si>
+    <t>Wo liegen diese Daten?</t>
+  </si>
+  <si>
+    <t>Bei einem Drittanbieter, wegen API Integration</t>
+  </si>
+  <si>
+    <t>Endzeit und Arbeitsdauer (also schon genau)</t>
+  </si>
+  <si>
+    <t>Gibt es etwas anderes, was du dir anschaust?</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Arbeitsdauer, Git Commits, Builds</t>
+  </si>
+  <si>
+    <t>Commits, wer wann gepusht, Anwesenheit vor Ort, Onlinestatus, Issue-Kommentare mit Zeitstempeln</t>
+  </si>
+  <si>
+    <t>Spezifisch, wer was wann gebaut hat?</t>
+  </si>
+  <si>
+    <t>Betroffene Tickets, Assignee, Zeitstempel, Commits, Umfang, Code selbst</t>
+  </si>
+  <si>
+    <t>Wie lange ist es dir wichtig, dass diese Daten aufbewahrt werden?</t>
+  </si>
+  <si>
+    <t>So lange Projekt läuft, erste zwei Wochen, dann weniger. Review/Commit-Infos aber wichtiger</t>
+  </si>
+  <si>
+    <t>Wie lange werden diese tatsächlich aufbewahrt?</t>
+  </si>
+  <si>
+    <t>Bis zum Crash. Sonst unbegrenzt</t>
+  </si>
+  <si>
+    <t>Alles, so genau wie möglich</t>
+  </si>
+  <si>
+    <t>Schaust du dir auch an, wann und von wem ein Kommentar editiert wurde?</t>
+  </si>
+  <si>
+    <t>Ja, da relevante Info dahinter</t>
+  </si>
+  <si>
+    <t>Welche Interessen generell bei Zeitstempeln in DevOps-Tools?</t>
+  </si>
+  <si>
+    <t>Nachvollziehbarkeit, Projektplanung, Qualitätssicherung, Leistungsbeurteilung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,27 +388,66 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="18">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -209,36 +463,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C8E81B1-61E4-604C-AA59-3C3DA3470C8A}" name="Tabelle1" displayName="Tabelle1" ref="B2:F31" totalsRowShown="0">
-  <autoFilter ref="B2:F31" xr:uid="{362CD77B-4D90-A94B-B432-C8063D357B3D}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A256BA8F-AA4A-AB4A-B6AD-47E0C6C4A308}" name="Tabelle1" displayName="Tabelle1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="5">
-    <tableColumn id="13" xr3:uid="{C89D14B6-1408-074F-A4BA-835BFAD80E43}" name=" "/>
-    <tableColumn id="1" xr3:uid="{A4BA4601-B341-844F-BF8F-ED48901CF16E}" name="Softwareentwickler"/>
-    <tableColumn id="2" xr3:uid="{24A2FC29-6597-7B47-86AE-48AC83F175AE}" name="Softwareentwickler und Berater"/>
-    <tableColumn id="3" xr3:uid="{D85DAF58-C562-F944-A0B6-9E6FDFC62F28}" name="Lead-Developer"/>
-    <tableColumn id="4" xr3:uid="{1BA91831-AE41-C144-8B07-DE661406A9B2}" name="Systemadministrator und DevOps"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{DE531306-CB2C-944E-8015-A5719852F6D8}" name="Frage" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{D4D879E8-40C0-664D-93E7-2BBA266C3FE1}" name="Textstelle" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{013584E3-5983-E644-96CA-5FE00B886242}" name="Code" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{47FEE824-1EF2-6248-A48F-928822002952}" name="Kategorie" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{38E18B2F-1779-C04F-8056-C557968F3A4E}" name="Table1" displayName="Table1" ref="B36:D40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B36:D40" xr:uid="{3A020BD2-E4BF-4547-A794-7316F2FB38F1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0403F503-B036-1842-9BB9-274D4FC0065C}" name="Rolle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{5DD6BC8C-0707-AA42-90AA-1BDA24881BBC}" name="Administration von Servern" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2D495AA2-1B47-6842-82EB-21F06E621B8A}" name="Nutzung von Log-Dateien" dataDxfId="2"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -540,194 +812,539 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340C6FA8-7641-E84A-85F2-1761299F2A93}">
-  <dimension ref="B1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65ABCEB-CE71-7646-B79C-941F1A78307A}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="47" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>30</v>
+      <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8BA51-CE27-D54F-9883-965052864073}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0068B80-5400-FD48-A91E-4A8E821607B2}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9395E5F-EEC1-074F-BC61-22A484FEEA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A193AF03-54E4-2C4B-8FC9-20A2BD4D4274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Entwickler1" sheetId="1" r:id="rId1"/>
     <sheet name="Berater und Entwickler" sheetId="4" r:id="rId2"/>
     <sheet name="Lead-Developer" sheetId="6" r:id="rId3"/>
+    <sheet name="SysAdmin-DevOps" sheetId="8" r:id="rId4"/>
+    <sheet name="Entwickler2" sheetId="9" r:id="rId5"/>
+    <sheet name="Entwickler3" sheetId="10" r:id="rId6"/>
+    <sheet name="Entwickler4" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="157">
   <si>
     <t>Textstelle</t>
   </si>
@@ -130,9 +134,6 @@
     <t>Nutzeraktivität</t>
   </si>
   <si>
-    <t>Interesse an Daten</t>
-  </si>
-  <si>
     <t>Schaust du dir Logs an?</t>
   </si>
   <si>
@@ -184,9 +185,6 @@
     <t>Detailreich</t>
   </si>
   <si>
-    <t>Interesse an Zeitstempeln</t>
-  </si>
-  <si>
     <t>Temporär</t>
   </si>
   <si>
@@ -289,9 +287,6 @@
     <t>Mögliche Verarbeitungsinteressen von anderen Unternehmen</t>
   </si>
   <si>
-    <t>Welche Daten aus DevOps-Tools?</t>
-  </si>
-  <si>
     <t>Code selbst, Ersteller des Codes (aber nicht wichtig, ginge auch anonymisiert), Zeitstempel und Personendaten relevant</t>
   </si>
   <si>
@@ -350,6 +345,171 @@
   </si>
   <si>
     <t>Nachvollziehbarkeit, Projektplanung, Qualitätssicherung, Leistungsbeurteilung</t>
+  </si>
+  <si>
+    <t>Applikationslogs, Access-Logs</t>
+  </si>
+  <si>
+    <t>Nur auf Anfrage</t>
+  </si>
+  <si>
+    <t>Ja (Benutzername, Zeitstempel, Tags)</t>
+  </si>
+  <si>
+    <t>Keine Ahnung</t>
+  </si>
+  <si>
+    <t>Emacs, grep, ssh, cat</t>
+  </si>
+  <si>
+    <t>Build automatisch oder manuell?</t>
+  </si>
+  <si>
+    <t>Builds/Deployments funktionieren, gucke Git Commits an</t>
+  </si>
+  <si>
+    <t>Build Logs,</t>
+  </si>
+  <si>
+    <t>Zeitstempel nicht wichtig</t>
+  </si>
+  <si>
+    <t>Nicht viel</t>
+  </si>
+  <si>
+    <t>Die letzten 5 Builds reichen</t>
+  </si>
+  <si>
+    <t>Beschreibung, Titel, Typ, Problem, so detailreich wie möglich</t>
+  </si>
+  <si>
+    <t>Ja (vorallem bei schwierigen Themen)</t>
+  </si>
+  <si>
+    <t>Problembehandlung, in Logs auch Nachvollziehbarkeit, Leistungsbeurteilung</t>
+  </si>
+  <si>
+    <t>Zur Erstellung von Statistiken</t>
+  </si>
+  <si>
+    <t>Alle Logs</t>
+  </si>
+  <si>
+    <t>min. 90 Tage, aber eher längere Zeitspannen</t>
+  </si>
+  <si>
+    <t>Problembehandlung</t>
+  </si>
+  <si>
+    <t>Ansible, ssh, python, Logcheck, Thunderbird, Kommunikationstools</t>
+  </si>
+  <si>
+    <t>Nachverfolgung der Arbeitszeiten</t>
+  </si>
+  <si>
+    <t>Sensible Kundendaten (Anschrift, Name, KundenIDs, finanzielle Daten zum Ableiten möglich)</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Aufgabenzuweisungen, Terminbuchungen</t>
+  </si>
+  <si>
+    <t>Genaue Uhrzeit, nach einem Monat aber nicht mehr relevant</t>
+  </si>
+  <si>
+    <t>Zeitstempel im Instant Messenger,</t>
+  </si>
+  <si>
+    <t>Ja, zum Nachvollziehen</t>
+  </si>
+  <si>
+    <t>Nichts, kein Code-Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inhalt, Personen, Historie, Status, Erstelldatum, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nachvollziehbarkeit, </t>
+  </si>
+  <si>
+    <t>Aktivitätslog</t>
+  </si>
+  <si>
+    <t>Nur in Testfällen (Benutzername und Zeitstempel, wenn Funktionalität gefordert ist)</t>
+  </si>
+  <si>
+    <t>Abstellung des Testsystems/Dev-Tools</t>
+  </si>
+  <si>
+    <t>Ja, zur Nachvollziehbarkeit (Rolle wichtig, Benutzername nicht)</t>
+  </si>
+  <si>
+    <t>Kalender von Kollegen, Online-Status,</t>
+  </si>
+  <si>
+    <t>Arbeitszeit nachverfolgen</t>
+  </si>
+  <si>
+    <t>Code, Branches, Commits etc.</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Benutzername</t>
+  </si>
+  <si>
+    <t>Genaue Uhrzeit/Tag während Issue läuft</t>
+  </si>
+  <si>
+    <t>Ja, zum Nachvollziehen des Codes und um Ansprechpartner zu finden</t>
+  </si>
+  <si>
+    <t>Abhängig ob Code noch derselbe ist oder nicht. Hin und wieder nötig, aber Quatsch so lange aufzubewahren</t>
+  </si>
+  <si>
+    <t>Chatnachrichten, Inhalt, Reihenfolge, Zeitstempel</t>
+  </si>
+  <si>
+    <t>Meine Codeverbesserungen, welche noch nötig sind</t>
+  </si>
+  <si>
+    <t>Beschreibung, Titel, Historie, Kommentare zur Problemschilderung etc.</t>
+  </si>
+  <si>
+    <t>Nein, eher nicht</t>
+  </si>
+  <si>
+    <t>Nachvollziehen, wie lange der Code her ist. Eventuell kann ich daraus Rückschlüsse ziehen</t>
+  </si>
+  <si>
+    <t>Leistungsbewertung, Nachvollziehbarkeit</t>
+  </si>
+  <si>
+    <t>Time-Tracking, Anzahl der Commits, Anzahl der Zeilen</t>
+  </si>
+  <si>
+    <t>Alle möglichen eigentlich, Serverlogs wenn etwas abstürzt, Applikationslogs vorallem wenn ich etwas neues implementiere</t>
+  </si>
+  <si>
+    <t>Nein, das nur wenn unsere Arbeit zusammenhängt und ich einen Ansprechpartner brauche</t>
+  </si>
+  <si>
+    <t>Manuell resetted</t>
+  </si>
+  <si>
+    <t>Kommunikationstools mit Teams, JIRA</t>
+  </si>
+  <si>
+    <t>Ja, durch für Mitarbeiter offengelegte Issues/Builds/Commits</t>
+  </si>
+  <si>
+    <t>Für Ansprechpartner, zur Fehlerbehebung</t>
+  </si>
+  <si>
+    <t>Builds, Logs, Code, Tests</t>
+  </si>
+  <si>
+    <t>Verarbeitete Daten</t>
+  </si>
+  <si>
+    <t>Konkretes Interesse</t>
   </si>
 </sst>
 </file>
@@ -394,7 +554,79 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="42">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -463,7 +695,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A256BA8F-AA4A-AB4A-B6AD-47E0C6C4A308}" name="Tabelle1" displayName="Tabelle1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A256BA8F-AA4A-AB4A-B6AD-47E0C6C4A308}" name="Tabelle1" displayName="Tabelle1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -471,17 +703,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{DE531306-CB2C-944E-8015-A5719852F6D8}" name="Frage" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{D4D879E8-40C0-664D-93E7-2BBA266C3FE1}" name="Textstelle" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{013584E3-5983-E644-96CA-5FE00B886242}" name="Code" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{47FEE824-1EF2-6248-A48F-928822002952}" name="Kategorie" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{DE531306-CB2C-944E-8015-A5719852F6D8}" name="Frage" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{D4D879E8-40C0-664D-93E7-2BBA266C3FE1}" name="Textstelle" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{013584E3-5983-E644-96CA-5FE00B886242}" name="Code" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{47FEE824-1EF2-6248-A48F-928822002952}" name="Kategorie" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -489,17 +721,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -507,10 +739,82 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -815,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65ABCEB-CE71-7646-B79C-941F1A78307A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A13" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -855,7 +1159,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -866,10 +1170,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,10 +1184,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -894,10 +1198,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,10 +1212,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -922,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -936,10 +1240,10 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -950,10 +1254,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -964,10 +1268,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,10 +1282,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -995,7 +1299,7 @@
         <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1006,10 +1310,10 @@
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1020,122 +1324,122 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8BA51-CE27-D54F-9883-965052864073}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1182,10 +1486,13 @@
     </row>
     <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1193,13 +1500,165 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1213,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0068B80-5400-FD48-A91E-4A8E821607B2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1249,15 +1708,21 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1265,7 +1730,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1273,23 +1741,32 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,23 +1774,32 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,23 +1807,1151 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C77C9-F5A2-C249-8295-C6E90AB74E6C}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BB84F-7DAF-974C-8B0B-B9392DD69BCD}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A343F4-0A95-8546-B211-53D820FFAA92}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB73D2-2AF1-C144-851C-8D5106DBF3ED}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A193AF03-54E4-2C4B-8FC9-20A2BD4D4274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB21CDB-7801-3E4E-A991-6DFBB61237AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="192">
   <si>
     <t>Textstelle</t>
   </si>
@@ -296,12 +296,6 @@
     <t>sensible Kundendaten, Nutzernamen, Kundennummern etc,</t>
   </si>
   <si>
-    <t>Wo liegen diese Daten?</t>
-  </si>
-  <si>
-    <t>Bei einem Drittanbieter, wegen API Integration</t>
-  </si>
-  <si>
     <t>Endzeit und Arbeitsdauer (also schon genau)</t>
   </si>
   <si>
@@ -510,6 +504,117 @@
   </si>
   <si>
     <t>Konkretes Interesse</t>
+  </si>
+  <si>
+    <t>Sensible Kundendaten</t>
+  </si>
+  <si>
+    <t>Konkrete Einsicht in verarbeiteten Daten</t>
+  </si>
+  <si>
+    <t>Daten in Review-Tools</t>
+  </si>
+  <si>
+    <t>Relevanz der Personendaten in Builds</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Commits, Builds</t>
+  </si>
+  <si>
+    <t>Zeitstempel, Commits</t>
+  </si>
+  <si>
+    <t>Commits, Builds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anfangs-/Endzeit, </t>
+  </si>
+  <si>
+    <t>Anfangs-/Endzeit, temporär</t>
+  </si>
+  <si>
+    <t>Benutzernamen, Online-Status, Issues</t>
+  </si>
+  <si>
+    <t>Relevant</t>
+  </si>
+  <si>
+    <t>Benutzernamen, Zeitstempel</t>
+  </si>
+  <si>
+    <t>Benutzernamen, Zeitstempel, Issuebeschreibung, Issueersteller</t>
+  </si>
+  <si>
+    <t>Detailgrad in Issue-Kommentaren</t>
+  </si>
+  <si>
+    <t>Qualitätssicherung, Leistungsbeurteilung, Nachvollziehbarkeit, Projektplanung</t>
+  </si>
+  <si>
+    <t>Keine Angabe</t>
+  </si>
+  <si>
+    <t>Vorhanden</t>
+  </si>
+  <si>
+    <t>Applikationslogs- Access-Logs</t>
+  </si>
+  <si>
+    <t>Interesse an persönlichen Daten in Log-Dateien</t>
+  </si>
+  <si>
+    <t>Auf Anfrage</t>
+  </si>
+  <si>
+    <t>Nachvollziehbarkeit von Builds</t>
+  </si>
+  <si>
+    <t>Builds</t>
+  </si>
+  <si>
+    <t>keine</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>Leistungsbeurteilung, Qualitätssicherung</t>
+  </si>
+  <si>
+    <t>Builds, Repos</t>
+  </si>
+  <si>
+    <t>Zur Identifizierung von Fehlercommits, sonst nicht</t>
+  </si>
+  <si>
+    <t>Benutzername,</t>
+  </si>
+  <si>
+    <t>Ja, durch Plugins, Benutzernamen, Ticket-IDs etc</t>
+  </si>
+  <si>
+    <t>JaCoCo, SonarCube, …</t>
+  </si>
+  <si>
+    <t>Build-Logs, Server-Logs, Applikations-Logs</t>
+  </si>
+  <si>
+    <t>Abhängig vom Unternehmen, idR unbegrenzt</t>
+  </si>
+  <si>
+    <t>Fernseher etc.</t>
+  </si>
+  <si>
+    <t>Fehler behoben, nicht mehr relevant etc.</t>
+  </si>
+  <si>
+    <t>Unbegrenzt, manueller Reset</t>
+  </si>
+  <si>
+    <t>Ersteller, Inhalt, Zeitstempel</t>
+  </si>
+  <si>
+    <t>Leistungsbeurteilung, Arbeitszeiten-Nachverfolgung etc.</t>
   </si>
 </sst>
 </file>
@@ -554,7 +659,25 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="48">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -695,7 +818,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A256BA8F-AA4A-AB4A-B6AD-47E0C6C4A308}" name="Tabelle1" displayName="Tabelle1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A256BA8F-AA4A-AB4A-B6AD-47E0C6C4A308}" name="Tabelle1" displayName="Tabelle1" ref="A1:D22" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -703,17 +826,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{DE531306-CB2C-944E-8015-A5719852F6D8}" name="Frage" dataDxfId="39"/>
-    <tableColumn id="1" xr3:uid="{D4D879E8-40C0-664D-93E7-2BBA266C3FE1}" name="Textstelle" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{013584E3-5983-E644-96CA-5FE00B886242}" name="Code" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{47FEE824-1EF2-6248-A48F-928822002952}" name="Kategorie" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{DE531306-CB2C-944E-8015-A5719852F6D8}" name="Frage" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{D4D879E8-40C0-664D-93E7-2BBA266C3FE1}" name="Textstelle" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{013584E3-5983-E644-96CA-5FE00B886242}" name="Code" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{47FEE824-1EF2-6248-A48F-928822002952}" name="Kategorie" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="8">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -721,17 +844,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="0"/>
-    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -739,17 +862,30 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DA9FF5E-9A3F-1246-95B0-DA426649212E}" name="Tabelle159" displayName="Tabelle159" ref="F1:I22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="F1:I22" xr:uid="{2C2F9E0C-4A88-4F43-ACC7-237FB05DB38B}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{D24A8B3B-9B0C-374D-93DC-3C8BD51D1C35}" name="Frage" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{44C7400B-5CCA-AD42-94EC-D0142BF70FF1}" name="Textstelle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3CDEA3DC-644D-6F45-BBD5-BF7511218345}" name="Code" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{DB20A470-AA5D-2946-AE49-3084146F021F}" name="Kategorie" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -757,17 +893,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="24"/>
-    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -775,17 +911,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -793,17 +929,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -811,10 +947,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1119,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65ABCEB-CE71-7646-B79C-941F1A78307A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D2:D22"/>
+    <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1159,7 +1295,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1170,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>156</v>
@@ -1184,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
@@ -1215,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1229,7 +1365,7 @@
         <v>52</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1455,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8BA51-CE27-D54F-9883-965052864073}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1484,7 +1620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1492,7 +1628,7 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1513,6 +1649,9 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
       </c>
@@ -1521,6 +1660,9 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1529,22 +1671,31 @@
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
@@ -1553,6 +1704,9 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
@@ -1561,6 +1715,9 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
@@ -1569,14 +1726,20 @@
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>63</v>
       </c>
@@ -1585,6 +1748,9 @@
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1593,6 +1759,9 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
@@ -1601,6 +1770,9 @@
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1609,6 +1781,9 @@
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>70</v>
       </c>
@@ -1617,14 +1792,20 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>74</v>
       </c>
@@ -1633,6 +1814,9 @@
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D19" s="1" t="s">
         <v>76</v>
       </c>
@@ -1641,6 +1825,9 @@
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
@@ -1649,6 +1836,9 @@
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
@@ -1656,6 +1846,9 @@
     <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -1672,10 +1865,527 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0068B80-5400-FD48-A91E-4A8E821607B2}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C77C9-F5A2-C249-8295-C6E90AB74E6C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView topLeftCell="A8" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1708,29 +2418,38 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>84</v>
+        <v>106</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
@@ -1738,10 +2457,13 @@
     </row>
     <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>87</v>
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
@@ -1749,10 +2471,13 @@
     </row>
     <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -1760,10 +2485,13 @@
     </row>
     <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
@@ -1771,10 +2499,13 @@
     </row>
     <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>54</v>
@@ -1782,10 +2513,13 @@
     </row>
     <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>55</v>
@@ -1793,10 +2527,13 @@
     </row>
     <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -1804,10 +2541,13 @@
     </row>
     <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -1815,10 +2555,10 @@
     </row>
     <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>63</v>
@@ -1826,10 +2566,10 @@
     </row>
     <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
@@ -1837,7 +2577,7 @@
     </row>
     <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
@@ -1859,7 +2599,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>70</v>
@@ -1870,7 +2610,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -1881,7 +2621,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>74</v>
@@ -1892,7 +2632,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>76</v>
@@ -1903,7 +2643,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>77</v>
@@ -1914,7 +2654,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
@@ -1923,6 +2663,9 @@
     <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -1937,12 +2680,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C77C9-F5A2-C249-8295-C6E90AB74E6C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BB84F-7DAF-974C-8B0B-B9392DD69BCD}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView topLeftCell="A11" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1975,10 +2718,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1986,10 +2729,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1997,7 +2740,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
@@ -2008,7 +2751,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
@@ -2019,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -2030,7 +2773,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
@@ -2041,7 +2784,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>54</v>
@@ -2063,7 +2806,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -2074,7 +2817,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2085,7 +2828,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>63</v>
@@ -2096,7 +2839,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
@@ -2126,7 +2869,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>70</v>
@@ -2137,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -2148,7 +2891,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>74</v>
@@ -2159,7 +2902,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>76</v>
@@ -2181,7 +2924,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
@@ -2192,7 +2935,7 @@
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -2207,12 +2950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BB84F-7DAF-974C-8B0B-B9392DD69BCD}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A343F4-0A95-8546-B211-53D820FFAA92}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView topLeftCell="A10" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2245,10 +2988,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2256,10 +2999,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2267,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>57</v>
@@ -2278,7 +3021,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>60</v>
@@ -2289,7 +3032,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>51</v>
@@ -2300,7 +3043,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>53</v>
@@ -2311,7 +3054,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>54</v>
@@ -2333,7 +3076,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>58</v>
@@ -2344,7 +3087,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>61</v>
@@ -2355,7 +3098,7 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>63</v>
@@ -2366,7 +3109,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>64</v>
@@ -2376,6 +3119,9 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>66</v>
       </c>
@@ -2396,7 +3142,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>70</v>
@@ -2407,7 +3153,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
@@ -2418,7 +3164,7 @@
         <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>74</v>
@@ -2429,7 +3175,7 @@
         <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>76</v>
@@ -2440,7 +3186,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>77</v>
@@ -2451,7 +3197,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>78</v>
@@ -2460,9 +3206,6 @@
     <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>81</v>
@@ -2477,12 +3220,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A343F4-0A95-8546-B211-53D820FFAA92}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB73D2-2AF1-C144-851C-8D5106DBF3ED}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2515,288 +3258,18 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB73D2-2AF1-C144-851C-8D5106DBF3ED}">
-  <dimension ref="A1:D22"/>
-  <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.2">

--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB21CDB-7801-3E4E-A991-6DFBB61237AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA999461-455C-A340-9A9F-6CEC2D4EFF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Entwickler1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="193">
   <si>
     <t>Textstelle</t>
   </si>
@@ -615,6 +615,9 @@
   </si>
   <si>
     <t>Leistungsbeurteilung, Arbeitszeiten-Nachverfolgung etc.</t>
+  </si>
+  <si>
+    <t>Allgemeine Auswertungen von persönlichen Daten in DevOps-Tools</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1259,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1591,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8BA51-CE27-D54F-9883-965052864073}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1867,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0068B80-5400-FD48-A91E-4A8E821607B2}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D22"/>
+    <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2172,7 @@
         <v>170</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>26</v>
@@ -2384,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C77C9-F5A2-C249-8295-C6E90AB74E6C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2684,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BB84F-7DAF-974C-8B0B-B9392DD69BCD}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A8" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2954,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A343F4-0A95-8546-B211-53D820FFAA92}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A6" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3224,8 +3227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB73D2-2AF1-C144-851C-8D5106DBF3ED}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA999461-455C-A340-9A9F-6CEC2D4EFF45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF3F68-DDCA-5140-B6C1-E91F9D996325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Entwickler1" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F8356B19-7009-1B48-A2E3-9DEE7148F8C1}" name="Tabelle13" displayName="Tabelle13" ref="A1:D22" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -847,17 +847,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{EA967DFE-EF23-DF47-A7C0-3FBD132BC404}" name="Frage" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{77D72EF3-8F0D-3F4B-A3B2-ACA2B8A6A898}" name="Textstelle" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{6719E0C2-CE20-9C4B-831B-ED34F7CE1E49}" name="Code" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{7F716CAA-3ACA-874B-8236-B7C83E243331}" name="Kategorie" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A869FFF4-FC7F-EA45-AF4C-B5B363026240}" name="Tabelle14" displayName="Tabelle14" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -865,30 +865,30 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="38"/>
-    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3A9119B6-218D-9243-96CF-D40C1B00EF37}" name="Frage" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{08842469-8B4B-B74E-A38D-E11B6055D352}" name="Textstelle" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{E90514E5-53A5-4343-99DE-30B830C1A3B2}" name="Code" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{C1F8F76A-ED6C-AC49-94F1-67E3A7974171}" name="Kategorie" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DA9FF5E-9A3F-1246-95B0-DA426649212E}" name="Tabelle159" displayName="Tabelle159" ref="F1:I22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DA9FF5E-9A3F-1246-95B0-DA426649212E}" name="Tabelle159" displayName="Tabelle159" ref="F1:I22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="F1:I22" xr:uid="{2C2F9E0C-4A88-4F43-ACC7-237FB05DB38B}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{D24A8B3B-9B0C-374D-93DC-3C8BD51D1C35}" name="Frage" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{44C7400B-5CCA-AD42-94EC-D0142BF70FF1}" name="Textstelle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3CDEA3DC-644D-6F45-BBD5-BF7511218345}" name="Code" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{DB20A470-AA5D-2946-AE49-3084146F021F}" name="Kategorie" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D24A8B3B-9B0C-374D-93DC-3C8BD51D1C35}" name="Frage" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{44C7400B-5CCA-AD42-94EC-D0142BF70FF1}" name="Textstelle" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{3CDEA3DC-644D-6F45-BBD5-BF7511218345}" name="Code" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{DB20A470-AA5D-2946-AE49-3084146F021F}" name="Kategorie" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -896,17 +896,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="33"/>
-    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -914,17 +914,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -932,17 +932,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -950,10 +950,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1258,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65ABCEB-CE71-7646-B79C-941F1A78307A}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1594,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8BA51-CE27-D54F-9883-965052864073}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1870,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0068B80-5400-FD48-A91E-4A8E821607B2}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2387,8 +2387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{885C77C9-F5A2-C249-8295-C6E90AB74E6C}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2687,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9BB84F-7DAF-974C-8B0B-B9392DD69BCD}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A343F4-0A95-8546-B211-53D820FFAA92}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3227,7 +3227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FB73D2-2AF1-C144-851C-8D5106DBF3ED}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/interviews/Tables.xlsx
+++ b/interviews/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samet/git/BachelorThesis/interviews/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF3F68-DDCA-5140-B6C1-E91F9D996325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4FC44-F13F-A547-A0BF-F182A190D551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{30FCFC14-64E9-FB46-9FBF-E8393E916E46}"/>
   </bookViews>
   <sheets>
     <sheet name="Entwickler1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="222">
   <si>
     <t>Textstelle</t>
   </si>
@@ -618,6 +618,93 @@
   </si>
   <si>
     <t>Allgemeine Auswertungen von persönlichen Daten in DevOps-Tools</t>
+  </si>
+  <si>
+    <t>Leitfrage</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>Konkrete Fragen</t>
+  </si>
+  <si>
+    <t>Aufrechterhaltungs- &amp; Steuerungsfragen</t>
+  </si>
+  <si>
+    <t>Welche Daten verarbeiten Sie?</t>
+  </si>
+  <si>
+    <t>Was schauen Sie sich konkret an?</t>
+  </si>
+  <si>
+    <t>In welcher Auflösung benötigen Sie den Zeitstempel?</t>
+  </si>
+  <si>
+    <t>Gibt es etwas Anderes, was Sie sich ansehen?</t>
+  </si>
+  <si>
+    <t>Schauen Sie sich an, wer spezifisch wann etwas gebaut hat?</t>
+  </si>
+  <si>
+    <t>Was schauen Sie sich beim Review-Tool an?</t>
+  </si>
+  <si>
+    <t>Wie lange ist es für Sie wichtig, dass diese Daten aufbewahrt werden?</t>
+  </si>
+  <si>
+    <t>Was für Daten schauen Sie sich in Issues an und in welchem Detailgrad brauchen Sie diese?</t>
+  </si>
+  <si>
+    <t>Schauen Sie sich auch an, wann und von wem ein Kommentar editiert wurde?</t>
+  </si>
+  <si>
+    <t>Welche Interessen verfolgen Sie generell Bei Zeitstempeln in DevOps-Tools?</t>
+  </si>
+  <si>
+    <t>Welche Auswertungen, die Sie nicht selbst machen, aber sich vorstellen können, können mit diesen Daten gemacht werden?</t>
+  </si>
+  <si>
+    <t>Auf welche Art und Weise wird dies erreicht?</t>
+  </si>
+  <si>
+    <t>Schauen Sie sich Logs an?</t>
+  </si>
+  <si>
+    <t>Schauen Sie sich auch an, wer speziell was gemacht hat?</t>
+  </si>
+  <si>
+    <t>Wie lange werden diese Logs aufbewahrt?</t>
+  </si>
+  <si>
+    <t>Welche Tools verwenden Sie zur Administration?</t>
+  </si>
+  <si>
+    <t>Haben Sie die Möglichkeit einzusehen, wer wann was gemacht hat?</t>
+  </si>
+  <si>
+    <t>Warum ist der Personenbezug für Sie relevant?</t>
+  </si>
+  <si>
+    <t>Welche anderen Verarbeitungsinteressen können Sie sich von anderen Unternehmen vorstellen?</t>
+  </si>
+  <si>
+    <t>offenes Ergebnis, für späteren Bezug</t>
+  </si>
+  <si>
+    <t>Interessen aufdecken, persönliche Daten relevant?</t>
+  </si>
+  <si>
+    <t>Anfangs-/Endzeit, Lebensdauer</t>
+  </si>
+  <si>
+    <t>Kenntnisse und Interesse über die Aufbewahrungsdauer vorhanden?</t>
+  </si>
+  <si>
+    <t>Erfahren, ob Privatsphäre wichtiger ist als Benutzerfreundlichkeit</t>
+  </si>
+  <si>
+    <t>Ja: Aus welchem Grund?</t>
   </si>
 </sst>
 </file>
@@ -875,20 +962,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{3DA9FF5E-9A3F-1246-95B0-DA426649212E}" name="Tabelle159" displayName="Tabelle159" ref="F1:I22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="F1:I22" xr:uid="{2C2F9E0C-4A88-4F43-ACC7-237FB05DB38B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C24F8765-0F00-BD4C-B46B-34AFDCCE5912}" name="Tabelle8" displayName="Tabelle8" ref="F1:I23" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="F1:I23" xr:uid="{03EAC85D-1117-B448-9A62-24D5D46DF772}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{D24A8B3B-9B0C-374D-93DC-3C8BD51D1C35}" name="Frage" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{44C7400B-5CCA-AD42-94EC-D0142BF70FF1}" name="Textstelle" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{3CDEA3DC-644D-6F45-BBD5-BF7511218345}" name="Code" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{DB20A470-AA5D-2946-AE49-3084146F021F}" name="Kategorie" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{3C64F85F-00A4-DB40-8AD3-1AFD0AE67110}" name="Leitfrage" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{DF226F31-1C0B-D24A-A34D-2FCEE8267448}" name="Check" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8F4D2BD0-9D27-F34D-882A-2F5B564138C6}" name="Konkrete Fragen" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{58F6206E-6BA1-0C49-95F0-447D2F8D61CA}" name="Aufrechterhaltungs- &amp; Steuerungsfragen" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0B1AD5A7-08C9-1645-8620-A194525DE04F}" name="Tabelle15" displayName="Tabelle15" ref="A1:D22" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -896,17 +983,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E905CC32-886C-214F-B420-F1FADDC109C2}" name="Frage" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{28E680A8-2F51-0A4F-8FBE-21D7C698B69A}" name="Textstelle" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{35378587-85AE-574A-B2B6-90EE7ED09F60}" name="Code" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{33CCCCC1-D747-A24A-9B7D-3C4D97C50BF2}" name="Kategorie" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0544E311-0F1D-D147-A7BB-53FC838F09B5}" name="Tabelle156" displayName="Tabelle156" ref="A1:D22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -914,17 +1001,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="15"/>
-    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{93B4C70E-4D7E-674A-8F5E-7E9AC565C1FD}" name="Frage" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{EE2BF712-F8CB-CB4D-9741-303E9C314C28}" name="Textstelle" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{BF416457-3BAF-8840-8589-96E38168FD01}" name="Code" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{CCD072B5-C758-B94F-848B-9D85A2C5E51F}" name="Kategorie" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{77702C4B-CB55-D74C-A85A-A3B9241554D1}" name="Tabelle1567" displayName="Tabelle1567" ref="A1:D22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -932,17 +1019,17 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DC2AEC62-6465-C14E-AC44-9FE9AF4956A9}" name="Frage" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{6A554E67-8316-5F46-94E3-81A7C68317BC}" name="Textstelle" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{546525AE-8062-9F49-A1DD-A1E371F64FAD}" name="Code" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{04A02C86-8D46-2345-AF86-98DE75CE85BF}" name="Kategorie" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DB5AF317-A723-1449-BD76-29BA6CE5A257}" name="Tabelle15678" displayName="Tabelle15678" ref="A1:D22" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:D22" xr:uid="{3D27EBAD-482D-A24A-974E-664329CBFD2B}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -950,10 +1037,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{AF5C5168-86AC-D241-8BF9-097D130A662E}" name="Frage" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{A3B5C2D0-706E-274C-AD1E-4898AEEDEE9F}" name="Textstelle" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F4F49772-1DC5-0E4F-AE86-08509AF0FFB2}" name="Code" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6B49C543-B5AC-3142-9A29-641FC03CC2F0}" name="Kategorie" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1594,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC8BA51-CE27-D54F-9883-965052864073}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
@@ -1870,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0068B80-5400-FD48-A91E-4A8E821607B2}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="53" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1899,16 +1986,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1925,13 +2012,10 @@
         <v>153</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1948,13 +2032,10 @@
         <v>156</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1971,13 +2052,10 @@
         <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>57</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,13 +2072,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2017,13 +2089,10 @@
         <v>158</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,13 +2109,7 @@
         <v>157</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2063,13 +2126,10 @@
         <v>54</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2086,13 +2146,10 @@
         <v>55</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2109,13 +2166,7 @@
         <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2132,13 +2183,7 @@
         <v>168</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2155,13 +2200,7 @@
         <v>63</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2175,13 +2214,7 @@
         <v>192</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2195,10 +2228,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2215,13 +2245,7 @@
         <v>68</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,16 +2262,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2261,16 +2279,10 @@
         <v>173</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -2281,16 +2293,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -2301,16 +2307,10 @@
         <v>76</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -2324,16 +2324,10 @@
         <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -2347,29 +2341,14 @@
         <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" s="1" t="s">
         <v>81</v>
       </c>
     </row>
